--- a/Project/引脚封装定义/引脚定义.xlsx
+++ b/Project/引脚封装定义/引脚定义.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GITHUB_PROJECT\Four-axis-aircraft\Project\引脚封装定义\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52709B59-89D1-40FF-AC15-3B19A66F4EDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA3D90E-9616-4709-85BD-2C5E5730CC3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="2655" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,11 +67,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓝牙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USART</t>
+    <t>蓝牙HM-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM输入捕获</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C_SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C_SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GY86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配到的外设</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -121,9 +167,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,18 +454,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="3" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,67 +474,136 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project/引脚封装定义/引脚定义.xlsx
+++ b/Project/引脚封装定义/引脚定义.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GITHUB_PROJECT\Four-axis-aircraft\Project\引脚封装定义\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA3D90E-9616-4709-85BD-2C5E5730CC3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2082609C-2557-4101-AAFD-F77D7397DA53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="2655" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2424" yWindow="2148" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,163 @@
   </si>
   <si>
     <t>分配到的外设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM2</t>
+  </si>
+  <si>
+    <t>TIM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3</t>
+  </si>
+  <si>
+    <t>TIM3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD15</t>
+  </si>
+  <si>
+    <t>PD13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM4*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冗余设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM5_CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART2_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART3_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART3_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART6_RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART6_TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,19 +611,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="3" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="3" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,123 +640,301 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Project/引脚封装定义/引脚定义.xlsx
+++ b/Project/引脚封装定义/引脚定义.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GITHUB_PROJECT\Four-axis-aircraft\Project\引脚封装定义\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2082609C-2557-4101-AAFD-F77D7397DA53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C29A5E-B02B-49EC-81B0-1BE3F6362B4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2424" yWindow="2148" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15780" yWindow="8145" windowWidth="21600" windowHeight="11430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PA3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PD12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,6 +265,14 @@
   </si>
   <si>
     <t>PC7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,17 +617,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="3" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="3" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -640,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -657,7 +661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -674,7 +678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -691,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -708,7 +712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -725,7 +729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -733,10 +737,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -750,7 +754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -761,7 +765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -772,7 +776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -783,7 +787,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>14</v>
       </c>
@@ -794,7 +798,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -805,7 +809,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>14</v>
       </c>
@@ -816,7 +820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -824,10 +828,10 @@
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -835,24 +839,24 @@
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -860,80 +864,80 @@
         <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
